--- a/DuleCard/配置表/卡牌技能配置表.xlsx
+++ b/DuleCard/配置表/卡牌技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24855" windowHeight="11595"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCfg" sheetId="3" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="530">
   <si>
     <t>注：
 1位功法类型：1拳、2武、3身、4内、5忍
@@ -723,24 +723,6 @@
     <t>2;3</t>
   </si>
   <si>
-    <t>移花接木Comob1</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;荆棘1&lt;/b&gt;，持续2回合</t>
-  </si>
-  <si>
-    <t>移花接木Comob2</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;荆棘2&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>移花接木Comob3</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;荆棘3&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>太极剑法Comob1</t>
   </si>
   <si>
@@ -1435,10 +1417,10 @@
     <t>对敌人造成8点伤害并削散8点内力</t>
   </si>
   <si>
-    <t>15;4</t>
-  </si>
-  <si>
-    <t>-8;-8</t>
+    <t>乾坤七层-2</t>
+  </si>
+  <si>
+    <t>内力-8</t>
   </si>
   <si>
     <t>九阳神功Comob5</t>
@@ -1705,30 +1687,6 @@
   </si>
   <si>
     <t>{敌方攻击≤5时}获得绝招“乱花迷人眼”</t>
-  </si>
-  <si>
-    <t>斗转星移Comob1</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;反伤2&lt;/b&gt;，持续2回合</t>
-  </si>
-  <si>
-    <t>斗转星移Comob2</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;反伤2&lt;/b&gt;，持续3回合</t>
-  </si>
-  <si>
-    <t>斗转星移Comob3</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;反伤4&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>斗转星移Comob4</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;反伤4&lt;/b&gt;，持续2回合</t>
   </si>
   <si>
     <t>一指禅功Comob5</t>
@@ -1868,24 +1826,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{先手时}添加抽牌buff，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 持续2回合</t>
-    </r>
+    <t>{先手时}抽牌， 持续2回合</t>
   </si>
   <si>
     <t>小纵跃功-抽牌</t>
@@ -2014,21 +1955,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2042,9 +1991,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2057,8 +2005,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2081,15 +2046,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2098,23 +2055,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2127,6 +2068,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -2134,9 +2083,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2145,13 +2093,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2168,7 +2109,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2189,13 +2130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,7 +2154,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,13 +2202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,25 +2214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,7 +2238,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,31 +2268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2321,61 +2292,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2400,6 +2335,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2429,21 +2379,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2454,6 +2389,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2472,17 +2418,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2507,10 +2442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2519,138 +2454,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2715,12 +2650,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2730,8 +2659,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2745,7 +2674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2753,9 +2682,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3117,14 +3043,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD241"/>
+  <dimension ref="A1:XFD235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A152" sqref="$A152:$XFD152"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -37720,7 +37646,7 @@
       <c r="L51" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M51" s="37" t="s">
+      <c r="M51" s="34" t="s">
         <v>146</v>
       </c>
       <c r="N51" s="3"/>
@@ -37765,7 +37691,7 @@
       <c r="L52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M52" s="37" t="s">
+      <c r="M52" s="34" t="s">
         <v>149</v>
       </c>
       <c r="N52" s="3"/>
@@ -38584,7 +38510,7 @@
       <c r="B74" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="11" t="s">
         <v>196</v>
       </c>
       <c r="D74" s="4">
@@ -38715,41 +38641,36 @@
       </c>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="23">
-        <v>41301</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="A78" s="12">
+        <v>23001</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="17" t="s">
         <v>205</v>
       </c>
       <c r="D78" s="18">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3">
         <v>4</v>
       </c>
-      <c r="E78" s="3">
-        <v>5</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
         <v>1</v>
       </c>
-      <c r="G78" s="3">
-        <v>15</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
+      <c r="K78" s="3"/>
+      <c r="L78" s="3">
+        <v>9</v>
+      </c>
+      <c r="M78" s="3">
         <v>2</v>
       </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="N78" s="3">
-        <v>1</v>
-      </c>
+      <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
@@ -38757,83 +38678,70 @@
       <c r="T78" s="3"/>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="23">
-        <v>41302</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="12">
+        <v>23002</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D79" s="18">
         <v>4</v>
       </c>
       <c r="E79" s="3">
-        <v>5</v>
-      </c>
-      <c r="F79" s="3">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
         <v>1</v>
-      </c>
-      <c r="G79" s="3">
-        <v>15</v>
-      </c>
-      <c r="H79" s="3">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
-        <v>2</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="N79" s="3">
-        <v>2</v>
-      </c>
+      <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
+      <c r="Q79" s="3">
+        <v>1</v>
+      </c>
       <c r="R79" s="3"/>
       <c r="T79" s="3"/>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="23">
-        <v>41303</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="12">
+        <v>23003</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="17" t="s">
         <v>209</v>
       </c>
       <c r="D80" s="18">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3">
         <v>4</v>
       </c>
-      <c r="E80" s="3">
-        <v>5</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
         <v>1</v>
       </c>
-      <c r="G80" s="3">
-        <v>15</v>
-      </c>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>2</v>
-      </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="N80" s="3">
-        <v>3</v>
-      </c>
+      <c r="L80" s="3">
+        <v>9</v>
+      </c>
+      <c r="M80" s="3">
+        <v>4</v>
+      </c>
+      <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
@@ -38842,7 +38750,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="12">
-        <v>23001</v>
+        <v>23004</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>210</v>
@@ -38851,10 +38759,10 @@
         <v>211</v>
       </c>
       <c r="D81" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -38864,11 +38772,8 @@
         <v>1</v>
       </c>
       <c r="K81" s="3"/>
-      <c r="L81" s="3">
-        <v>9</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2</v>
+      <c r="L81" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -38879,19 +38784,19 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="12">
-        <v>23002</v>
+        <v>23005</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D82" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -38905,21 +38810,21 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="3">
-        <v>1</v>
-      </c>
-      <c r="R82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
+        <v>31017</v>
+      </c>
       <c r="T82" s="3"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="12">
-        <v>23003</v>
+        <v>23006</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D83" s="18">
         <v>2</v>
@@ -38939,7 +38844,7 @@
         <v>9</v>
       </c>
       <c r="M83" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -38949,31 +38854,40 @@
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" s="12">
-        <v>23004</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C84" s="17" t="s">
+      <c r="A84" s="18">
+        <v>24001</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>217</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="D84" s="18">
         <v>3</v>
       </c>
       <c r="E84" s="3">
-        <v>3</v>
-      </c>
-      <c r="F84" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F84" s="3">
+        <v>4</v>
+      </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1</v>
+      </c>
       <c r="J84" s="3">
         <v>1</v>
       </c>
       <c r="K84" s="3"/>
-      <c r="L84" s="3" t="s">
-        <v>218</v>
+      <c r="L84" s="3">
+        <v>9</v>
+      </c>
+      <c r="M84" s="3">
+        <v>1</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -38983,59 +38897,74 @@
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" s="12">
-        <v>23005</v>
-      </c>
-      <c r="B85" s="12" t="s">
+      <c r="A85" s="18">
+        <v>24002</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D85" s="18">
         <v>3</v>
       </c>
       <c r="E85" s="3">
-        <v>2</v>
-      </c>
-      <c r="F85" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4</v>
+      </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
       <c r="J85" s="3">
         <v>1</v>
       </c>
       <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
+      <c r="L85" s="3">
+        <v>10</v>
+      </c>
+      <c r="M85" s="3">
+        <v>2</v>
+      </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="3">
-        <v>31017</v>
-      </c>
+      <c r="R85" s="3"/>
       <c r="T85" s="3"/>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" s="12">
-        <v>23006</v>
-      </c>
-      <c r="B86" s="12" t="s">
+      <c r="A86" s="18">
+        <v>24003</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D86" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="3">
         <v>4</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3">
+        <v>4</v>
+      </c>
       <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1</v>
+      </c>
       <c r="J86" s="3">
         <v>1</v>
       </c>
@@ -39044,7 +38973,7 @@
         <v>9</v>
       </c>
       <c r="M86" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -39055,7 +38984,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="18">
-        <v>24001</v>
+        <v>24004</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>223</v>
@@ -39077,17 +39006,17 @@
         <v>0</v>
       </c>
       <c r="I87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3">
         <v>1</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M87" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -39096,9 +39025,9 @@
       <c r="R87" s="3"/>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:18">
       <c r="A88" s="18">
-        <v>24002</v>
+        <v>24005</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>225</v>
@@ -39106,42 +39035,22 @@
       <c r="C88" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D88" s="18">
-        <v>3</v>
+      <c r="D88" s="1">
+        <v>4</v>
       </c>
       <c r="E88" s="3">
-        <v>4</v>
-      </c>
-      <c r="F88" s="3">
-        <v>4</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3">
-        <v>0</v>
-      </c>
-      <c r="I88" s="3">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
+        <v>2</v>
+      </c>
+      <c r="J88" s="4">
         <v>1</v>
       </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3">
-        <v>10</v>
-      </c>
-      <c r="M88" s="3">
-        <v>2</v>
-      </c>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="T88" s="3"/>
+      <c r="R88" s="4">
+        <v>31036</v>
+      </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:12">
       <c r="A89" s="18">
-        <v>24003</v>
+        <v>24006</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>227</v>
@@ -39149,108 +39058,60 @@
       <c r="C89" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="1">
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+        <v>3</v>
+      </c>
+      <c r="J89" s="4">
         <v>1</v>
       </c>
-      <c r="J89" s="3">
-        <v>1</v>
-      </c>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3">
-        <v>9</v>
-      </c>
-      <c r="M89" s="3">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="T89" s="3"/>
+      <c r="L89" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:10">
       <c r="A90" s="18">
-        <v>24004</v>
+        <v>25001</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="1"/>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="18">
+        <v>25002</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D90" s="18">
-        <v>3</v>
-      </c>
-      <c r="E90" s="3">
-        <v>4</v>
-      </c>
-      <c r="F90" s="3">
-        <v>4</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3">
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>1</v>
-      </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3">
-        <v>10</v>
-      </c>
-      <c r="M90" s="3">
-        <v>4</v>
-      </c>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="18">
-        <v>24005</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D91" s="1">
         <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
       </c>
-      <c r="R91" s="4">
-        <v>31036</v>
+      <c r="Q91" s="4">
+        <v>1</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:17">
       <c r="A92" s="18">
-        <v>24006</v>
+        <v>25003</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>233</v>
@@ -39259,45 +39120,59 @@
         <v>234</v>
       </c>
       <c r="D92" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J92" s="4">
         <v>1</v>
       </c>
-      <c r="L92" s="4" t="s">
-        <v>85</v>
+      <c r="Q92" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:20">
       <c r="A93" s="18">
-        <v>25001</v>
+        <v>25004</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="C93" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4</v>
+      </c>
+      <c r="E93" s="3">
+        <v>7</v>
+      </c>
       <c r="J93" s="4">
         <v>1</v>
       </c>
+      <c r="Q93" s="4">
+        <v>2</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:18">
       <c r="A94" s="18">
-        <v>25002</v>
+        <v>25005</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D94" s="1">
         <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
@@ -39305,143 +39180,164 @@
       <c r="Q94" s="4">
         <v>1</v>
       </c>
-      <c r="T94" s="4" t="s">
-        <v>238</v>
+      <c r="R94" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:13">
       <c r="A95" s="18">
-        <v>25003</v>
+        <v>25006</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="C95" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3">
         <v>4</v>
-      </c>
-      <c r="E95" s="3">
-        <v>10</v>
       </c>
       <c r="J95" s="4">
         <v>1</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="L95" s="4">
+        <v>5</v>
+      </c>
+      <c r="M95" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="18">
+        <v>25007</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
-      <c r="A96" s="18">
-        <v>25004</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D96" s="1">
-        <v>4</v>
-      </c>
-      <c r="E96" s="3">
-        <v>7</v>
       </c>
       <c r="J96" s="4">
         <v>1</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="K96" s="4">
+        <v>90002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="18">
+        <v>25008</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3</v>
+      </c>
+      <c r="J97" s="4">
         <v>2</v>
       </c>
-      <c r="T96" s="4" t="s">
-        <v>238</v>
+      <c r="L97" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
-      <c r="A97" s="18">
-        <v>25005</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D97" s="1">
-        <v>4</v>
-      </c>
-      <c r="E97" s="3">
-        <v>2</v>
-      </c>
-      <c r="J97" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="4">
-        <v>1</v>
-      </c>
-      <c r="R97" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:19">
       <c r="A98" s="18">
-        <v>25006</v>
+        <v>15001</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98" s="1" t="s">
         <v>247</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
       </c>
       <c r="E98" s="3">
+        <v>3</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
         <v>4</v>
+      </c>
+      <c r="H98" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I98" s="4">
+        <v>11</v>
       </c>
       <c r="J98" s="4">
         <v>1</v>
       </c>
-      <c r="L98" s="4">
-        <v>5</v>
-      </c>
-      <c r="M98" s="3">
-        <v>-3</v>
+      <c r="L98" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:12">
       <c r="A99" s="18">
-        <v>25007</v>
+        <v>15002</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
       </c>
       <c r="E99" s="3">
+        <v>3</v>
+      </c>
+      <c r="F99" s="4">
         <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>4</v>
+      </c>
+      <c r="H99" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I99" s="4">
+        <v>11</v>
       </c>
       <c r="J99" s="4">
         <v>1</v>
       </c>
-      <c r="K99" s="4">
-        <v>90002</v>
+      <c r="L99" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="18">
-        <v>25008</v>
+        <v>15003</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -39449,22 +39345,34 @@
       <c r="E100" s="3">
         <v>3</v>
       </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4">
+        <v>4</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4">
+        <v>9</v>
+      </c>
       <c r="J100" s="4">
-        <v>2</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:12">
       <c r="A101" s="18">
-        <v>15001</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C101" s="4" t="s">
+        <v>15004</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>254</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -39479,64 +39387,49 @@
         <v>4</v>
       </c>
       <c r="H101" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I101" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J101" s="4">
         <v>1</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="S101" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:18">
       <c r="A102" s="18">
-        <v>15002</v>
-      </c>
-      <c r="B102" s="3" t="s">
+        <v>15005</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="19" t="s">
         <v>257</v>
       </c>
       <c r="D102" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>3</v>
-      </c>
-      <c r="F102" s="4">
-        <v>1</v>
-      </c>
-      <c r="G102" s="4">
-        <v>4</v>
-      </c>
-      <c r="H102" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I102" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
       </c>
-      <c r="L102" s="10" t="s">
-        <v>252</v>
+      <c r="R102" s="4">
+        <v>33016</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" ht="27" spans="1:10">
       <c r="A103" s="18">
-        <v>15003</v>
-      </c>
-      <c r="B103" s="3" t="s">
+        <v>15006</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="19" t="s">
         <v>259</v>
       </c>
       <c r="D103" s="1">
@@ -39549,29 +39442,26 @@
         <v>1</v>
       </c>
       <c r="G103" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103" s="4">
         <v>1</v>
       </c>
       <c r="I103" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
       </c>
-      <c r="L103" s="10" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="18">
-        <v>15004</v>
-      </c>
-      <c r="B104" s="19" t="s">
+    <row r="104" ht="27" spans="1:19">
+      <c r="A104" s="12">
+        <v>16001</v>
+      </c>
+      <c r="B104" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="24" t="s">
         <v>261</v>
       </c>
       <c r="D104" s="1">
@@ -39580,57 +39470,57 @@
       <c r="E104" s="3">
         <v>3</v>
       </c>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-      <c r="G104" s="4">
-        <v>4</v>
-      </c>
-      <c r="H104" s="4">
-        <v>1</v>
-      </c>
-      <c r="I104" s="4">
-        <v>9</v>
-      </c>
       <c r="J104" s="4">
         <v>1</v>
       </c>
-      <c r="L104" s="10" t="s">
-        <v>252</v>
+      <c r="L104" s="4">
+        <v>9</v>
+      </c>
+      <c r="M104" s="3">
+        <v>2</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
-      <c r="A105" s="18">
-        <v>15005</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C105" s="19" t="s">
+    <row r="105" ht="27" spans="1:19">
+      <c r="A105" s="12">
+        <v>16002</v>
+      </c>
+      <c r="B105" s="24" t="s">
         <v>263</v>
       </c>
+      <c r="C105" s="24" t="s">
+        <v>264</v>
+      </c>
       <c r="D105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" s="4">
         <v>1</v>
       </c>
-      <c r="R105" s="4">
-        <v>33016</v>
+      <c r="L105" s="4">
+        <v>9</v>
+      </c>
+      <c r="M105" s="3">
+        <v>2</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="1:10">
-      <c r="A106" s="18">
-        <v>15006</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>265</v>
+    <row r="106" ht="27" spans="1:19">
+      <c r="A106" s="12">
+        <v>16003</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="D106" s="1">
         <v>3</v>
@@ -39638,31 +39528,28 @@
       <c r="E106" s="3">
         <v>3</v>
       </c>
-      <c r="F106" s="4">
-        <v>1</v>
-      </c>
-      <c r="G106" s="4">
-        <v>1</v>
-      </c>
-      <c r="H106" s="4">
-        <v>1</v>
-      </c>
-      <c r="I106" s="4">
-        <v>4</v>
-      </c>
       <c r="J106" s="4">
         <v>1</v>
+      </c>
+      <c r="L106" s="4">
+        <v>9</v>
+      </c>
+      <c r="M106" s="3">
+        <v>2</v>
+      </c>
+      <c r="S106" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="107" ht="27" spans="1:19">
       <c r="A107" s="12">
-        <v>16001</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>267</v>
+        <v>16004</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="D107" s="1">
         <v>3</v>
@@ -39680,324 +39567,298 @@
         <v>2</v>
       </c>
       <c r="S107" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="108" ht="27" spans="1:19">
+    <row r="108" spans="1:18">
       <c r="A108" s="12">
-        <v>16002</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>270</v>
+        <v>16005</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="D108" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" s="4">
         <v>1</v>
       </c>
-      <c r="L108" s="4">
-        <v>9</v>
-      </c>
-      <c r="M108" s="3">
-        <v>2</v>
-      </c>
-      <c r="S108" s="5" t="s">
-        <v>271</v>
+      <c r="R108" s="4">
+        <v>33026</v>
       </c>
     </row>
-    <row r="109" ht="27" spans="1:19">
+    <row r="109" spans="1:4">
       <c r="A109" s="12">
-        <v>16003</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D109" s="1">
-        <v>3</v>
-      </c>
-      <c r="E109" s="3">
-        <v>3</v>
-      </c>
-      <c r="J109" s="4">
-        <v>1</v>
-      </c>
-      <c r="L109" s="4">
-        <v>9</v>
-      </c>
-      <c r="M109" s="3">
-        <v>2</v>
-      </c>
-      <c r="S109" s="5" t="s">
+        <v>33001</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>274</v>
       </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="1"/>
     </row>
-    <row r="110" ht="27" spans="1:19">
+    <row r="110" ht="27" spans="1:11">
       <c r="A110" s="12">
-        <v>16004</v>
-      </c>
-      <c r="B110" s="26" t="s">
+        <v>33002</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="24" t="s">
         <v>276</v>
       </c>
       <c r="D110" s="1">
         <v>3</v>
       </c>
       <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4">
         <v>3</v>
+      </c>
+      <c r="G110" s="4">
+        <v>9</v>
+      </c>
+      <c r="H110" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1</v>
       </c>
       <c r="J110" s="4">
         <v>1</v>
       </c>
-      <c r="L110" s="4">
+      <c r="K110" s="4">
+        <v>33002</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="1:11">
+      <c r="A111" s="12">
+        <v>33003</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
+        <v>3</v>
+      </c>
+      <c r="G111" s="4">
         <v>9</v>
       </c>
-      <c r="M110" s="3">
-        <v>2</v>
-      </c>
-      <c r="S110" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="A111" s="12">
-        <v>16005</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D111" s="1">
-        <v>4</v>
-      </c>
-      <c r="E111" s="3">
-        <v>2</v>
+      <c r="H111" s="4">
+        <v>1</v>
+      </c>
+      <c r="I111" s="4">
+        <v>-1</v>
       </c>
       <c r="J111" s="4">
         <v>1</v>
       </c>
-      <c r="R111" s="4">
-        <v>33026</v>
+      <c r="K111" s="4">
+        <v>33003</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" ht="27" spans="1:11">
       <c r="A112" s="12">
-        <v>33001</v>
-      </c>
-      <c r="B112" s="26" t="s">
+        <v>33004</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="4">
+        <v>3</v>
+      </c>
+      <c r="G112" s="4">
+        <v>9</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4">
+        <v>33004</v>
+      </c>
     </row>
-    <row r="113" ht="27" spans="1:11">
+    <row r="113" spans="1:18">
       <c r="A113" s="12">
-        <v>33002</v>
-      </c>
-      <c r="B113" s="26" t="s">
+        <v>33005</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="24" t="s">
         <v>282</v>
       </c>
       <c r="D113" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="4">
-        <v>3</v>
-      </c>
-      <c r="G113" s="4">
-        <v>9</v>
-      </c>
-      <c r="H113" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" s="4">
         <v>1</v>
       </c>
-      <c r="K113" s="4">
-        <v>33002</v>
+      <c r="R113" s="4">
+        <v>34016</v>
       </c>
     </row>
-    <row r="114" ht="27" spans="1:11">
+    <row r="114" customHeight="1" spans="1:10">
       <c r="A114" s="12">
-        <v>33003</v>
-      </c>
-      <c r="B114" s="26" t="s">
+        <v>33006</v>
+      </c>
+      <c r="B114" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="24" t="s">
         <v>284</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
       </c>
       <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="4">
         <v>3</v>
       </c>
-      <c r="G114" s="4">
-        <v>9</v>
-      </c>
-      <c r="H114" s="4">
-        <v>1</v>
-      </c>
-      <c r="I114" s="4">
-        <v>-1</v>
-      </c>
+      <c r="F114" s="25"/>
       <c r="J114" s="4">
         <v>1</v>
       </c>
-      <c r="K114" s="4">
-        <v>33003</v>
-      </c>
     </row>
-    <row r="115" ht="27" spans="1:11">
-      <c r="A115" s="12">
-        <v>33004</v>
-      </c>
-      <c r="B115" s="26" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="3">
+        <v>34001</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C115" s="26" t="s">
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="3">
+        <v>34002</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D115" s="1">
-        <v>3</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="C116" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D116" s="4">
         <v>1</v>
       </c>
-      <c r="F115" s="4">
-        <v>3</v>
-      </c>
-      <c r="G115" s="4">
-        <v>9</v>
-      </c>
-      <c r="H115" s="4">
-        <v>1</v>
-      </c>
-      <c r="I115" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J115" s="4">
-        <v>1</v>
-      </c>
-      <c r="K115" s="4">
-        <v>33004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18">
-      <c r="A116" s="12">
-        <v>33005</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="E116" s="3">
         <v>4</v>
-      </c>
-      <c r="E116" s="3">
-        <v>2</v>
       </c>
       <c r="J116" s="4">
         <v>1</v>
       </c>
-      <c r="R116" s="4">
-        <v>34016</v>
+      <c r="L116" s="4">
+        <v>13</v>
+      </c>
+      <c r="M116" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:10">
-      <c r="A117" s="12">
-        <v>33006</v>
-      </c>
-      <c r="B117" s="26" t="s">
+    <row r="117" spans="1:13">
+      <c r="A117" s="3">
+        <v>34003</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C117" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D117" s="1">
-        <v>3</v>
+      <c r="D117" s="4">
+        <v>2</v>
       </c>
       <c r="E117" s="3">
-        <v>3</v>
-      </c>
-      <c r="F117" s="22"/>
+        <v>4</v>
+      </c>
       <c r="J117" s="4">
         <v>1</v>
       </c>
+      <c r="L117" s="4">
+        <v>13</v>
+      </c>
+      <c r="M117" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" s="3">
-        <v>34001</v>
+        <v>34004</v>
       </c>
       <c r="B118" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119" s="3">
+        <v>34005</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="3">
-        <v>34002</v>
-      </c>
-      <c r="B119" s="19" t="s">
+      <c r="C119" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>293</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
       <c r="E119" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J119" s="4">
         <v>1</v>
       </c>
-      <c r="L119" s="4">
-        <v>13</v>
-      </c>
-      <c r="M119" s="3">
+      <c r="R119" s="4">
+        <v>34026</v>
+      </c>
+      <c r="T119" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="3">
-        <v>34003</v>
+        <v>34006</v>
       </c>
       <c r="B120" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C120" s="27" t="s">
-        <v>295</v>
-      </c>
       <c r="D120" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" s="3">
         <v>4</v>
@@ -40009,125 +39870,119 @@
         <v>13</v>
       </c>
       <c r="M120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="12">
+        <v>43001</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D121" s="4">
+        <v>4</v>
+      </c>
+      <c r="E121" s="3">
         <v>1</v>
       </c>
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+      <c r="K121" s="3">
+        <v>43001</v>
+      </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="3">
-        <v>34004</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C121" s="27"/>
-    </row>
-    <row r="122" spans="1:20">
-      <c r="A122" s="3">
-        <v>34005</v>
-      </c>
-      <c r="B122" s="3" t="s">
+    <row r="122" spans="1:11">
+      <c r="A122" s="12">
+        <v>43002</v>
+      </c>
+      <c r="B122" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="24" t="s">
         <v>298</v>
       </c>
       <c r="D122" s="4">
+        <v>4</v>
+      </c>
+      <c r="E122" s="3">
         <v>1</v>
-      </c>
-      <c r="E122" s="3">
-        <v>2</v>
       </c>
       <c r="J122" s="4">
         <v>1</v>
       </c>
-      <c r="R122" s="4">
-        <v>34026</v>
-      </c>
-      <c r="T122" s="4">
+      <c r="K122" s="3">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="12">
+        <v>43003</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="4">
+        <v>4</v>
+      </c>
+      <c r="E123" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="3">
-        <v>34006</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D123" s="4">
-        <v>3</v>
-      </c>
-      <c r="E123" s="3">
-        <v>4</v>
       </c>
       <c r="J123" s="4">
         <v>1</v>
       </c>
-      <c r="L123" s="4">
-        <v>13</v>
-      </c>
-      <c r="M123" s="3">
-        <v>2</v>
+      <c r="K123" s="3">
+        <v>43003</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:3">
       <c r="A124" s="12">
-        <v>43001</v>
-      </c>
-      <c r="B124" s="26" t="s">
+        <v>43004</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="24"/>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="12">
+        <v>43005</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="D124" s="4">
-        <v>4</v>
-      </c>
-      <c r="E124" s="3">
-        <v>1</v>
-      </c>
-      <c r="J124" s="4">
-        <v>1</v>
-      </c>
-      <c r="K124" s="3">
-        <v>43001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="12">
-        <v>43002</v>
-      </c>
-      <c r="B125" s="26" t="s">
+      <c r="C125" s="24" t="s">
         <v>303</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>304</v>
       </c>
       <c r="D125" s="4">
         <v>4</v>
       </c>
       <c r="E125" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" s="4">
         <v>1</v>
       </c>
-      <c r="K125" s="3">
-        <v>43002</v>
+      <c r="R125" s="4">
+        <v>35016</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="12">
-        <v>43003</v>
-      </c>
-      <c r="B126" s="26" t="s">
+        <v>43006</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>306</v>
       </c>
       <c r="D126" s="4">
         <v>4</v>
@@ -40138,73 +39993,123 @@
       <c r="J126" s="4">
         <v>1</v>
       </c>
-      <c r="K126" s="3">
-        <v>43003</v>
+      <c r="K126" s="4">
+        <v>43006</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:13">
       <c r="A127" s="12">
-        <v>43004</v>
-      </c>
-      <c r="B127" s="26" t="s">
+        <v>43007</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C127" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="C127" s="26"/>
+      <c r="D127" s="4">
+        <v>3</v>
+      </c>
+      <c r="E127" s="3">
+        <v>4</v>
+      </c>
+      <c r="F127" s="4">
+        <v>5</v>
+      </c>
+      <c r="H127" s="4">
+        <v>1</v>
+      </c>
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="4">
+        <v>43001</v>
+      </c>
+      <c r="L127" s="4">
+        <v>4</v>
+      </c>
+      <c r="M127" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:13">
       <c r="A128" s="12">
-        <v>43005</v>
-      </c>
-      <c r="B128" s="26" t="s">
+        <v>43008</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="24" t="s">
         <v>309</v>
       </c>
       <c r="D128" s="4">
+        <v>3</v>
+      </c>
+      <c r="E128" s="3">
         <v>4</v>
       </c>
-      <c r="E128" s="3">
-        <v>2</v>
+      <c r="F128" s="4">
+        <v>5</v>
+      </c>
+      <c r="H128" s="4">
+        <v>1</v>
       </c>
       <c r="J128" s="4">
         <v>1</v>
       </c>
-      <c r="R128" s="4">
-        <v>35016</v>
+      <c r="K128" s="4">
+        <v>43002</v>
+      </c>
+      <c r="L128" s="4">
+        <v>9</v>
+      </c>
+      <c r="M128" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:13">
       <c r="A129" s="12">
-        <v>43006</v>
-      </c>
-      <c r="B129" s="26" t="s">
+        <v>43009</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="24" t="s">
         <v>311</v>
       </c>
       <c r="D129" s="4">
+        <v>3</v>
+      </c>
+      <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="E129" s="3">
+      <c r="F129" s="4">
+        <v>5</v>
+      </c>
+      <c r="H129" s="4">
         <v>1</v>
       </c>
       <c r="J129" s="4">
         <v>1</v>
       </c>
       <c r="K129" s="4">
-        <v>43006</v>
+        <v>43003</v>
+      </c>
+      <c r="L129" s="4">
+        <v>10</v>
+      </c>
+      <c r="M129" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="12">
-        <v>43007</v>
-      </c>
-      <c r="B130" s="26" t="s">
+        <v>43010</v>
+      </c>
+      <c r="B130" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="24" t="s">
         <v>313</v>
       </c>
       <c r="D130" s="4">
@@ -40223,247 +40128,247 @@
         <v>1</v>
       </c>
       <c r="K130" s="4">
-        <v>43001</v>
+        <v>43006</v>
       </c>
       <c r="L130" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M130" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:3">
       <c r="A131" s="12">
-        <v>43008</v>
-      </c>
-      <c r="B131" s="26" t="s">
+        <v>44001</v>
+      </c>
+      <c r="B131" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="D131" s="4">
-        <v>3</v>
-      </c>
-      <c r="E131" s="3">
-        <v>4</v>
-      </c>
-      <c r="F131" s="4">
-        <v>5</v>
-      </c>
-      <c r="H131" s="4">
-        <v>1</v>
-      </c>
-      <c r="J131" s="4">
-        <v>1</v>
-      </c>
-      <c r="K131" s="4">
-        <v>43002</v>
-      </c>
-      <c r="L131" s="4">
-        <v>9</v>
-      </c>
-      <c r="M131" s="3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" ht="27" spans="1:3">
       <c r="A132" s="12">
-        <v>43009</v>
-      </c>
-      <c r="B132" s="26" t="s">
+        <v>44002</v>
+      </c>
+      <c r="B132" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D132" s="4">
-        <v>3</v>
-      </c>
-      <c r="E132" s="3">
-        <v>4</v>
-      </c>
-      <c r="F132" s="4">
-        <v>5</v>
-      </c>
-      <c r="H132" s="4">
-        <v>1</v>
-      </c>
-      <c r="J132" s="4">
-        <v>1</v>
-      </c>
-      <c r="K132" s="4">
-        <v>43003</v>
-      </c>
-      <c r="L132" s="4">
-        <v>10</v>
-      </c>
-      <c r="M132" s="3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" ht="27" spans="1:3">
       <c r="A133" s="12">
-        <v>43010</v>
-      </c>
-      <c r="B133" s="26" t="s">
+        <v>44003</v>
+      </c>
+      <c r="B133" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="24" t="s">
         <v>319</v>
-      </c>
-      <c r="D133" s="4">
-        <v>3</v>
-      </c>
-      <c r="E133" s="3">
-        <v>4</v>
-      </c>
-      <c r="F133" s="4">
-        <v>5</v>
-      </c>
-      <c r="H133" s="4">
-        <v>1</v>
-      </c>
-      <c r="J133" s="4">
-        <v>1</v>
-      </c>
-      <c r="K133" s="4">
-        <v>43006</v>
-      </c>
-      <c r="L133" s="4">
-        <v>9</v>
-      </c>
-      <c r="M133" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="12">
-        <v>44001</v>
-      </c>
-      <c r="B134" s="26" t="s">
+        <v>44004</v>
+      </c>
+      <c r="B134" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="24" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="135" ht="27" spans="1:3">
+    <row r="135" spans="1:18">
       <c r="A135" s="12">
-        <v>44002</v>
-      </c>
-      <c r="B135" s="26" t="s">
+        <v>44005</v>
+      </c>
+      <c r="B135" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="24" t="s">
         <v>323</v>
       </c>
+      <c r="D135" s="4">
+        <v>4</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2</v>
+      </c>
+      <c r="J135" s="4">
+        <v>1</v>
+      </c>
+      <c r="R135" s="4">
+        <v>35026</v>
+      </c>
     </row>
-    <row r="136" ht="27" spans="1:3">
+    <row r="136" ht="27" spans="1:20">
       <c r="A136" s="12">
-        <v>44003</v>
-      </c>
-      <c r="B136" s="26" t="s">
+        <v>44006</v>
+      </c>
+      <c r="B136" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="24" t="s">
         <v>325</v>
       </c>
+      <c r="D136" s="4">
+        <v>4</v>
+      </c>
+      <c r="E136" s="3">
+        <v>7</v>
+      </c>
+      <c r="J136" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>1</v>
+      </c>
+      <c r="T136" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" ht="27" spans="1:13">
       <c r="A137" s="12">
-        <v>44004</v>
-      </c>
-      <c r="B137" s="26" t="s">
+        <v>44007</v>
+      </c>
+      <c r="B137" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D137" s="4">
+        <v>4</v>
+      </c>
+      <c r="E137" s="3">
+        <v>4</v>
+      </c>
+      <c r="J137" s="4">
+        <v>1</v>
+      </c>
+      <c r="L137" s="4">
+        <v>5</v>
+      </c>
+      <c r="M137" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="3">
+        <v>45001</v>
+      </c>
+      <c r="B138" s="19" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
-      <c r="A138" s="12">
-        <v>44005</v>
-      </c>
-      <c r="B138" s="26" t="s">
+      <c r="C138" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>329</v>
       </c>
       <c r="D138" s="4">
         <v>4</v>
       </c>
       <c r="E138" s="3">
+        <v>5</v>
+      </c>
+      <c r="F138" s="4">
         <v>2</v>
       </c>
+      <c r="G138" s="4">
+        <v>21</v>
+      </c>
+      <c r="H138" s="4">
+        <v>1</v>
+      </c>
+      <c r="I138" s="4">
+        <v>0</v>
+      </c>
       <c r="J138" s="4">
+        <v>2</v>
+      </c>
+      <c r="N138" s="3">
         <v>1</v>
       </c>
-      <c r="R138" s="4">
-        <v>35026</v>
-      </c>
     </row>
-    <row r="139" ht="27" spans="1:20">
-      <c r="A139" s="12">
-        <v>44006</v>
-      </c>
-      <c r="B139" s="26" t="s">
+    <row r="139" spans="1:14">
+      <c r="A139" s="3">
+        <v>45002</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C139" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>331</v>
       </c>
       <c r="D139" s="4">
         <v>4</v>
       </c>
       <c r="E139" s="3">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F139" s="4">
+        <v>2</v>
+      </c>
+      <c r="G139" s="4">
+        <v>20</v>
+      </c>
+      <c r="H139" s="4">
+        <v>1</v>
+      </c>
+      <c r="I139" s="4">
+        <v>0</v>
       </c>
       <c r="J139" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="4">
-        <v>1</v>
-      </c>
-      <c r="T139" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N139" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="140" ht="27" spans="1:13">
-      <c r="A140" s="12">
-        <v>44007</v>
-      </c>
-      <c r="B140" s="26" t="s">
+    <row r="140" spans="1:14">
+      <c r="A140" s="3">
+        <v>45003</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>332</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>331</v>
       </c>
       <c r="D140" s="4">
         <v>4</v>
       </c>
       <c r="E140" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F140" s="4">
+        <v>2</v>
+      </c>
+      <c r="G140" s="4">
+        <v>21</v>
+      </c>
+      <c r="H140" s="4">
+        <v>1</v>
+      </c>
+      <c r="I140" s="4">
+        <v>0</v>
       </c>
       <c r="J140" s="4">
-        <v>1</v>
-      </c>
-      <c r="L140" s="4">
-        <v>5</v>
-      </c>
-      <c r="M140" s="3">
         <v>2</v>
+      </c>
+      <c r="N140" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="3">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="19" t="s">
         <v>334</v>
       </c>
       <c r="D141" s="4">
@@ -40476,7 +40381,7 @@
         <v>2</v>
       </c>
       <c r="G141" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H141" s="4">
         <v>1</v>
@@ -40485,211 +40390,219 @@
         <v>0</v>
       </c>
       <c r="J141" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N141" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:18">
       <c r="A142" s="3">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="19" t="s">
         <v>336</v>
       </c>
       <c r="D142" s="4">
         <v>4</v>
       </c>
       <c r="E142" s="3">
-        <v>5</v>
-      </c>
-      <c r="F142" s="4">
         <v>2</v>
-      </c>
-      <c r="G142" s="4">
-        <v>20</v>
-      </c>
-      <c r="H142" s="4">
-        <v>1</v>
-      </c>
-      <c r="I142" s="4">
-        <v>0</v>
       </c>
       <c r="J142" s="4">
         <v>1</v>
       </c>
-      <c r="N142" s="3">
-        <v>2</v>
+      <c r="R142" s="4">
+        <v>35036</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:11">
       <c r="A143" s="3">
-        <v>45003</v>
+        <v>45006</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="19" t="s">
         <v>338</v>
       </c>
       <c r="D143" s="4">
         <v>4</v>
       </c>
       <c r="E143" s="3">
-        <v>5</v>
-      </c>
-      <c r="F143" s="4">
-        <v>2</v>
-      </c>
-      <c r="G143" s="4">
-        <v>21</v>
-      </c>
-      <c r="H143" s="4">
         <v>1</v>
-      </c>
-      <c r="I143" s="4">
-        <v>0</v>
       </c>
       <c r="J143" s="4">
         <v>1</v>
       </c>
-      <c r="N143" s="3">
-        <v>3</v>
+      <c r="K143" s="4">
+        <v>45006</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:13">
       <c r="A144" s="3">
-        <v>45004</v>
+        <v>26002</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="18" t="s">
         <v>340</v>
       </c>
       <c r="D144" s="4">
+        <v>3</v>
+      </c>
+      <c r="E144" s="3">
         <v>4</v>
-      </c>
-      <c r="E144" s="3">
-        <v>5</v>
       </c>
       <c r="F144" s="4">
         <v>2</v>
       </c>
-      <c r="G144" s="4">
-        <v>20</v>
-      </c>
-      <c r="H144" s="4">
-        <v>1</v>
-      </c>
-      <c r="I144" s="4">
+      <c r="G144" s="15">
+        <v>16</v>
+      </c>
+      <c r="H144" s="18">
         <v>0</v>
+      </c>
+      <c r="I144" s="15">
+        <v>3</v>
       </c>
       <c r="J144" s="4">
         <v>1</v>
       </c>
-      <c r="N144" s="3">
+      <c r="K144" s="3"/>
+      <c r="L144" s="4">
+        <v>9</v>
+      </c>
+      <c r="M144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="3">
+        <v>26003</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D145" s="4">
+        <v>3</v>
+      </c>
+      <c r="E145" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
-      <c r="A145" s="3">
-        <v>45005</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="D145" s="4">
-        <v>4</v>
-      </c>
-      <c r="E145" s="3">
+      <c r="F145" s="4">
         <v>2</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="H145" s="18">
+        <v>11</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="J145" s="4">
         <v>1</v>
       </c>
-      <c r="R145" s="4">
-        <v>35036</v>
+      <c r="K145" s="3"/>
+      <c r="L145" s="4">
+        <v>9</v>
+      </c>
+      <c r="M145" s="3">
+        <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:13">
       <c r="A146" s="3">
-        <v>45006</v>
+        <v>26004</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="D146" s="4">
+        <v>3</v>
+      </c>
+      <c r="E146" s="3">
         <v>4</v>
       </c>
-      <c r="E146" s="3">
-        <v>1</v>
+      <c r="F146" s="4">
+        <v>2</v>
+      </c>
+      <c r="G146" s="15">
+        <v>16</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+      <c r="I146" s="4">
+        <v>5</v>
       </c>
       <c r="J146" s="4">
         <v>1</v>
       </c>
-      <c r="K146" s="4">
-        <v>45006</v>
+      <c r="K146" s="3"/>
+      <c r="L146" s="4">
+        <v>9</v>
+      </c>
+      <c r="M146" s="3">
+        <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:18">
       <c r="A147" s="3">
-        <v>26002</v>
+        <v>26005</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="D147" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E147" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F147" s="4">
         <v>2</v>
       </c>
-      <c r="G147" s="15">
-        <v>16</v>
-      </c>
-      <c r="H147" s="18">
+      <c r="G147" s="4">
+        <v>22</v>
+      </c>
+      <c r="H147" s="4">
+        <v>1</v>
+      </c>
+      <c r="I147" s="4">
         <v>0</v>
-      </c>
-      <c r="I147" s="15">
-        <v>3</v>
       </c>
       <c r="J147" s="4">
         <v>1</v>
       </c>
-      <c r="K147" s="3"/>
-      <c r="L147" s="4">
-        <v>9</v>
-      </c>
-      <c r="M147" s="3">
-        <v>2</v>
+      <c r="R147" s="4">
+        <v>41019</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="3">
-        <v>26003</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>348</v>
+        <v>26006</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="D148" s="4">
         <v>3</v>
@@ -40697,32 +40610,19 @@
       <c r="E148" s="3">
         <v>4</v>
       </c>
-      <c r="F148" s="4">
-        <v>2</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="H148" s="18">
-        <v>11</v>
-      </c>
-      <c r="I148" s="15" t="s">
-        <v>350</v>
-      </c>
       <c r="J148" s="4">
         <v>1</v>
       </c>
-      <c r="K148" s="3"/>
       <c r="L148" s="4">
         <v>9</v>
       </c>
       <c r="M148" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:11">
       <c r="A149" s="3">
-        <v>26004</v>
+        <v>260021</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>351</v>
@@ -40734,7 +40634,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F149" s="4">
         <v>2</v>
@@ -40742,218 +40642,199 @@
       <c r="G149" s="15">
         <v>16</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="18">
         <v>0</v>
       </c>
-      <c r="I149" s="4">
-        <v>5</v>
+      <c r="I149" s="15">
+        <v>3</v>
       </c>
       <c r="J149" s="4">
         <v>1</v>
       </c>
-      <c r="K149" s="3"/>
-      <c r="L149" s="4">
-        <v>9</v>
-      </c>
-      <c r="M149" s="3">
-        <v>6</v>
+      <c r="K149" s="4">
+        <v>2000</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:11">
       <c r="A150" s="3">
-        <v>26005</v>
-      </c>
-      <c r="B150" s="19" t="s">
+        <v>260031</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C150" s="18" t="s">
         <v>354</v>
       </c>
       <c r="D150" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E150" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" s="4">
         <v>2</v>
       </c>
-      <c r="G150" s="4">
-        <v>22</v>
-      </c>
-      <c r="H150" s="4">
-        <v>1</v>
-      </c>
-      <c r="I150" s="4">
-        <v>0</v>
+      <c r="G150" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="H150" s="18">
+        <v>11</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="J150" s="4">
         <v>1</v>
       </c>
-      <c r="R150" s="4">
-        <v>41019</v>
+      <c r="K150" s="4">
+        <v>2000</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="3">
-        <v>26006</v>
-      </c>
-      <c r="B151" s="27" t="s">
+    <row r="151" spans="1:14">
+      <c r="A151" s="12">
+        <v>27001</v>
+      </c>
+      <c r="B151" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="24" t="s">
         <v>356</v>
       </c>
       <c r="D151" s="4">
         <v>3</v>
       </c>
       <c r="E151" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J151" s="4">
         <v>1</v>
       </c>
-      <c r="L151" s="4">
-        <v>9</v>
-      </c>
-      <c r="M151" s="3">
-        <v>8</v>
+      <c r="N151" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="3">
-        <v>260021</v>
-      </c>
-      <c r="B152" s="19" t="s">
+    <row r="152" spans="1:13">
+      <c r="A152" s="12">
+        <v>27002</v>
+      </c>
+      <c r="B152" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="24" t="s">
         <v>358</v>
       </c>
       <c r="D152" s="4">
         <v>3</v>
       </c>
       <c r="E152" s="3">
-        <v>1</v>
-      </c>
-      <c r="F152" s="4">
-        <v>2</v>
-      </c>
-      <c r="G152" s="15">
-        <v>16</v>
-      </c>
-      <c r="H152" s="18">
-        <v>0</v>
-      </c>
-      <c r="I152" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J152" s="4">
         <v>1</v>
       </c>
-      <c r="K152" s="4">
-        <v>2000</v>
+      <c r="L152" s="4">
+        <v>1</v>
+      </c>
+      <c r="M152" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="3">
-        <v>260031</v>
-      </c>
-      <c r="B153" s="3" t="s">
+    <row r="153" spans="1:13">
+      <c r="A153" s="12">
+        <v>27003</v>
+      </c>
+      <c r="B153" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="24" t="s">
         <v>360</v>
       </c>
       <c r="D153" s="4">
         <v>3</v>
       </c>
       <c r="E153" s="3">
-        <v>1</v>
-      </c>
-      <c r="F153" s="4">
-        <v>2</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="H153" s="18">
-        <v>11</v>
-      </c>
-      <c r="I153" s="15" t="s">
-        <v>350</v>
+        <v>4</v>
       </c>
       <c r="J153" s="4">
         <v>1</v>
       </c>
-      <c r="K153" s="4">
-        <v>2000</v>
+      <c r="L153" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M153" s="34" t="s">
+        <v>361</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" ht="27" spans="1:10">
       <c r="A154" s="12">
-        <v>27001</v>
-      </c>
-      <c r="B154" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="C154" s="26" t="s">
+        <v>27004</v>
+      </c>
+      <c r="B154" s="24" t="s">
         <v>362</v>
       </c>
+      <c r="C154" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="D154" s="4">
+        <v>4</v>
+      </c>
+      <c r="E154" s="3">
         <v>3</v>
-      </c>
-      <c r="E154" s="3">
-        <v>12</v>
       </c>
       <c r="J154" s="4">
         <v>1</v>
       </c>
-      <c r="N154" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:18">
       <c r="A155" s="12">
-        <v>27002</v>
-      </c>
-      <c r="B155" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="C155" s="26" t="s">
+        <v>27005</v>
+      </c>
+      <c r="B155" s="24" t="s">
         <v>364</v>
       </c>
+      <c r="C155" s="24" t="s">
+        <v>365</v>
+      </c>
       <c r="D155" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E155" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J155" s="4">
         <v>1</v>
       </c>
-      <c r="L155" s="4">
-        <v>1</v>
-      </c>
-      <c r="M155" s="3">
-        <v>1</v>
+      <c r="R155" s="4">
+        <v>42017</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="12">
-        <v>27003</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C156" s="26" t="s">
+        <v>27006</v>
+      </c>
+      <c r="B156" s="24" t="s">
         <v>366</v>
+      </c>
+      <c r="C156" s="24" t="s">
+        <v>367</v>
       </c>
       <c r="D156" s="4">
         <v>3</v>
       </c>
       <c r="E156" s="3">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="F156" s="4">
+        <v>3</v>
+      </c>
+      <c r="G156" s="4">
+        <v>1</v>
+      </c>
+      <c r="H156" s="4">
+        <v>1</v>
+      </c>
+      <c r="I156" s="4">
+        <v>0</v>
       </c>
       <c r="J156" s="4">
         <v>1</v>
@@ -40961,148 +40842,190 @@
       <c r="L156" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M156" s="37" t="s">
-        <v>367</v>
+      <c r="M156" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="1:10">
+    <row r="157" s="1" customFormat="1" spans="1:19">
       <c r="A157" s="12">
-        <v>27004</v>
-      </c>
-      <c r="B157" s="26" t="s">
+        <v>27007</v>
+      </c>
+      <c r="B157" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="1">
         <v>4</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="18">
+        <v>2</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="M157" s="18"/>
+      <c r="S157" s="21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:19">
+      <c r="A158" s="12">
+        <v>27008</v>
+      </c>
+      <c r="B158" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D158" s="1">
         <v>3</v>
       </c>
-      <c r="J157" s="4">
+      <c r="E158" s="18">
+        <v>12</v>
+      </c>
+      <c r="J158" s="1">
+        <v>2</v>
+      </c>
+      <c r="M158" s="18"/>
+      <c r="N158" s="1">
         <v>1</v>
       </c>
+      <c r="S158" s="21"/>
     </row>
-    <row r="158" spans="1:18">
-      <c r="A158" s="12">
-        <v>27005</v>
-      </c>
-      <c r="B158" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D158" s="4">
-        <v>4</v>
-      </c>
-      <c r="E158" s="3">
-        <v>2</v>
-      </c>
-      <c r="J158" s="4">
-        <v>1</v>
-      </c>
-      <c r="R158" s="4">
-        <v>42017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:17">
       <c r="A159" s="12">
-        <v>27006</v>
-      </c>
-      <c r="B159" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="C159" s="26" t="s">
+        <v>28001</v>
+      </c>
+      <c r="B159" s="24" t="s">
         <v>373</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="D159" s="4">
         <v>3</v>
       </c>
       <c r="E159" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F159" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G159" s="4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H159" s="4">
         <v>1</v>
       </c>
       <c r="I159" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="4">
         <v>1</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M159" s="3" t="s">
-        <v>71</v>
+      <c r="L159" s="4">
+        <v>9</v>
+      </c>
+      <c r="M159" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" spans="1:19">
+    <row r="160" spans="1:17">
       <c r="A160" s="12">
-        <v>27007</v>
-      </c>
-      <c r="B160" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="C160" s="26" t="s">
+        <v>28002</v>
+      </c>
+      <c r="B160" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D160" s="1">
-        <v>4</v>
-      </c>
-      <c r="E160" s="18">
+      <c r="C160" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D160" s="4">
+        <v>3</v>
+      </c>
+      <c r="E160" s="3">
+        <v>3</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4">
+        <v>38</v>
+      </c>
+      <c r="H160" s="4">
+        <v>1</v>
+      </c>
+      <c r="I160" s="4">
+        <v>1</v>
+      </c>
+      <c r="J160" s="4">
+        <v>1</v>
+      </c>
+      <c r="L160" s="4">
+        <v>10</v>
+      </c>
+      <c r="M160" s="3">
         <v>2</v>
       </c>
-      <c r="J160" s="1">
+      <c r="Q160" s="4">
         <v>1</v>
       </c>
-      <c r="M160" s="18"/>
-      <c r="S160" s="21" t="s">
-        <v>376</v>
-      </c>
     </row>
-    <row r="161" s="1" customFormat="1" spans="1:19">
+    <row r="161" spans="1:17">
       <c r="A161" s="12">
-        <v>27008</v>
-      </c>
-      <c r="B161" s="26" t="s">
+        <v>28003</v>
+      </c>
+      <c r="B161" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="4">
         <v>3</v>
       </c>
-      <c r="E161" s="18">
-        <v>12</v>
-      </c>
-      <c r="J161" s="1">
+      <c r="E161" s="3">
+        <v>3</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+      <c r="G161" s="4">
+        <v>38</v>
+      </c>
+      <c r="H161" s="4">
+        <v>1</v>
+      </c>
+      <c r="I161" s="4">
+        <v>1</v>
+      </c>
+      <c r="J161" s="4">
+        <v>1</v>
+      </c>
+      <c r="L161" s="4">
+        <v>9</v>
+      </c>
+      <c r="M161" s="3">
         <v>2</v>
       </c>
-      <c r="M161" s="18"/>
-      <c r="N161" s="1">
-        <v>1</v>
-      </c>
-      <c r="S161" s="21"/>
+      <c r="Q161" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:10">
       <c r="A162" s="12">
-        <v>28001</v>
-      </c>
-      <c r="B162" s="26" t="s">
+        <v>28004</v>
+      </c>
+      <c r="B162" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="24" t="s">
         <v>380</v>
       </c>
       <c r="D162" s="4">
@@ -41111,252 +41034,243 @@
       <c r="E162" s="3">
         <v>3</v>
       </c>
-      <c r="F162" s="4">
-        <v>1</v>
-      </c>
-      <c r="G162" s="4">
-        <v>38</v>
-      </c>
-      <c r="H162" s="4">
-        <v>1</v>
-      </c>
-      <c r="I162" s="4">
-        <v>1</v>
-      </c>
       <c r="J162" s="4">
-        <v>1</v>
-      </c>
-      <c r="L162" s="4">
-        <v>9</v>
-      </c>
-      <c r="M162" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q162" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:18">
       <c r="A163" s="12">
-        <v>28002</v>
-      </c>
-      <c r="B163" s="26" t="s">
+        <v>28005</v>
+      </c>
+      <c r="B163" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="C163" s="24" t="s">
         <v>382</v>
       </c>
       <c r="D163" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" s="3">
-        <v>3</v>
-      </c>
-      <c r="F163" s="4">
-        <v>1</v>
-      </c>
-      <c r="G163" s="4">
-        <v>38</v>
-      </c>
-      <c r="H163" s="4">
-        <v>1</v>
-      </c>
-      <c r="I163" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" s="4">
         <v>1</v>
       </c>
-      <c r="L163" s="4">
-        <v>10</v>
-      </c>
-      <c r="M163" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q163" s="4">
-        <v>1</v>
+      <c r="R163" s="4">
+        <v>42028</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:10">
       <c r="A164" s="12">
-        <v>28003</v>
-      </c>
-      <c r="B164" s="26" t="s">
+        <v>28006</v>
+      </c>
+      <c r="B164" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="24" t="s">
         <v>384</v>
       </c>
       <c r="D164" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164" s="3">
         <v>3</v>
       </c>
-      <c r="F164" s="4">
+      <c r="J164" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="12">
+        <v>28007</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D165" s="4">
+        <v>4</v>
+      </c>
+      <c r="E165" s="3">
+        <v>11</v>
+      </c>
+      <c r="F165" s="4">
         <v>1</v>
       </c>
-      <c r="G164" s="4">
-        <v>38</v>
-      </c>
-      <c r="H164" s="4">
+      <c r="G165" s="4">
+        <v>39</v>
+      </c>
+      <c r="H165" s="4">
         <v>1</v>
       </c>
-      <c r="I164" s="4">
+      <c r="I165" s="4">
         <v>1</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J165" s="4">
         <v>1</v>
       </c>
-      <c r="L164" s="4">
-        <v>9</v>
-      </c>
-      <c r="M164" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q164" s="4">
-        <v>2</v>
+      <c r="Q165" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="12">
-        <v>28004</v>
-      </c>
-      <c r="B165" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="D165" s="4">
-        <v>3</v>
-      </c>
-      <c r="E165" s="3">
-        <v>3</v>
-      </c>
-      <c r="J165" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:17">
       <c r="A166" s="12">
-        <v>28005</v>
-      </c>
-      <c r="B166" s="26" t="s">
+        <v>28008</v>
+      </c>
+      <c r="B166" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="24" t="s">
         <v>388</v>
       </c>
       <c r="D166" s="4">
         <v>4</v>
       </c>
       <c r="E166" s="3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="G166" s="4">
+        <v>39</v>
+      </c>
+      <c r="H166" s="4">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4">
+        <v>1</v>
       </c>
       <c r="J166" s="4">
         <v>1</v>
       </c>
-      <c r="R166" s="4">
-        <v>42028</v>
+      <c r="Q166" s="4">
+        <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="12">
-        <v>28006</v>
-      </c>
-      <c r="B167" s="26" t="s">
+    <row r="167" spans="1:13">
+      <c r="A167" s="3">
+        <v>17001</v>
+      </c>
+      <c r="B167" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C167" s="26" t="s">
+      <c r="C167" s="19" t="s">
         <v>390</v>
       </c>
       <c r="D167" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E167" s="3">
         <v>3</v>
       </c>
+      <c r="F167" s="4">
+        <v>2</v>
+      </c>
+      <c r="G167" s="4">
+        <v>9</v>
+      </c>
+      <c r="H167" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I167" s="4">
+        <v>11</v>
+      </c>
       <c r="J167" s="4">
+        <v>1</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="3">
+        <v>17002</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D168" s="4">
+        <v>3</v>
+      </c>
+      <c r="E168" s="3">
+        <v>3</v>
+      </c>
+      <c r="F168" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:17">
-      <c r="A168" s="12">
-        <v>28007</v>
-      </c>
-      <c r="B168" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="C168" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D168" s="4">
-        <v>4</v>
-      </c>
-      <c r="E168" s="3">
+      <c r="G168" s="4">
+        <v>9</v>
+      </c>
+      <c r="H168" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I168" s="4">
         <v>11</v>
-      </c>
-      <c r="F168" s="4">
-        <v>1</v>
-      </c>
-      <c r="G168" s="4">
-        <v>39</v>
-      </c>
-      <c r="H168" s="4">
-        <v>1</v>
-      </c>
-      <c r="I168" s="4">
-        <v>1</v>
       </c>
       <c r="J168" s="4">
         <v>1</v>
       </c>
-      <c r="Q168" s="4">
-        <v>1</v>
+      <c r="L168" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
-      <c r="A169" s="12">
-        <v>28008</v>
-      </c>
-      <c r="B169" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>394</v>
+    <row r="169" spans="1:13">
+      <c r="A169" s="3">
+        <v>17003</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="D169" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E169" s="3">
+        <v>3</v>
+      </c>
+      <c r="F169" s="4">
+        <v>2</v>
+      </c>
+      <c r="G169" s="4">
+        <v>9</v>
+      </c>
+      <c r="H169" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I169" s="4">
         <v>11</v>
-      </c>
-      <c r="G169" s="4">
-        <v>39</v>
-      </c>
-      <c r="H169" s="4">
-        <v>1</v>
-      </c>
-      <c r="I169" s="4">
-        <v>1</v>
       </c>
       <c r="J169" s="4">
         <v>1</v>
       </c>
-      <c r="Q169" s="4">
-        <v>2</v>
+      <c r="L169" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="3">
-        <v>17001</v>
+        <v>17004</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D170" s="4">
         <v>3</v>
@@ -41380,27 +41294,27 @@
         <v>1</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:18">
       <c r="A171" s="3">
-        <v>17002</v>
+        <v>17005</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D171" s="4">
         <v>3</v>
       </c>
       <c r="E171" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F171" s="4">
         <v>2</v>
@@ -41417,22 +41331,19 @@
       <c r="J171" s="4">
         <v>1</v>
       </c>
-      <c r="L171" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>398</v>
+      <c r="R171" s="4">
+        <v>43028</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="3">
-        <v>17003</v>
+        <v>17006</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D172" s="4">
         <v>3</v>
@@ -41440,246 +41351,216 @@
       <c r="E172" s="3">
         <v>3</v>
       </c>
-      <c r="F172" s="4">
-        <v>2</v>
-      </c>
-      <c r="G172" s="4">
-        <v>9</v>
-      </c>
-      <c r="H172" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I172" s="4">
-        <v>11</v>
-      </c>
       <c r="J172" s="4">
         <v>1</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="3">
-        <v>17004</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>405</v>
+      <c r="A173" s="26">
+        <v>35002</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>407</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D173" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173" s="3">
-        <v>3</v>
-      </c>
-      <c r="F173" s="4">
-        <v>2</v>
-      </c>
-      <c r="G173" s="4">
-        <v>9</v>
-      </c>
-      <c r="H173" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I173" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J173" s="4">
         <v>1</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="M173" s="3" t="s">
-        <v>404</v>
+      <c r="L173" s="4">
+        <v>13</v>
+      </c>
+      <c r="M173" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
-      <c r="A174" s="3">
-        <v>17005</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>408</v>
+    <row r="174" spans="1:13">
+      <c r="A174" s="26">
+        <v>35003</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>410</v>
       </c>
       <c r="D174" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E174" s="3">
-        <v>2</v>
-      </c>
-      <c r="F174" s="4">
-        <v>2</v>
-      </c>
-      <c r="G174" s="4">
-        <v>9</v>
-      </c>
-      <c r="H174" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I174" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J174" s="4">
         <v>1</v>
       </c>
-      <c r="R174" s="4">
-        <v>43028</v>
+      <c r="L174" s="4">
+        <v>13</v>
+      </c>
+      <c r="M174" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:18">
       <c r="A175" s="3">
-        <v>17006</v>
-      </c>
-      <c r="B175" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C175" s="27" t="s">
-        <v>410</v>
+        <v>35005</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="D175" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" s="4">
         <v>1</v>
       </c>
-      <c r="L175" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="M175" s="3" t="s">
-        <v>412</v>
+      <c r="R175" s="4">
+        <v>44016</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
-      <c r="A176" s="28">
-        <v>35002</v>
-      </c>
-      <c r="B176" s="28" t="s">
+    <row r="176" spans="1:18">
+      <c r="A176" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="11" t="s">
         <v>414</v>
       </c>
       <c r="D176" s="4">
+        <v>4</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2</v>
+      </c>
+      <c r="F176" s="4">
         <v>1</v>
       </c>
-      <c r="E176" s="3">
-        <v>4</v>
+      <c r="G176" s="4">
+        <v>15</v>
+      </c>
+      <c r="H176" s="4">
+        <v>1</v>
+      </c>
+      <c r="I176" s="4">
+        <v>0</v>
       </c>
       <c r="J176" s="4">
         <v>1</v>
       </c>
-      <c r="L176" s="4">
-        <v>13</v>
-      </c>
-      <c r="M176" s="3">
+      <c r="R176" s="4">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D177" s="4">
+        <v>3</v>
+      </c>
+      <c r="E177" s="3">
+        <v>5</v>
+      </c>
+      <c r="J177" s="4">
         <v>2</v>
       </c>
+      <c r="N177" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="177" spans="1:13">
-      <c r="A177" s="28">
-        <v>35003</v>
-      </c>
-      <c r="B177" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="D177" s="4">
-        <v>2</v>
-      </c>
-      <c r="E177" s="3">
-        <v>4</v>
-      </c>
-      <c r="J177" s="4">
-        <v>1</v>
-      </c>
-      <c r="L177" s="4">
-        <v>13</v>
-      </c>
-      <c r="M177" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:13">
       <c r="A178" s="3">
-        <v>35005</v>
+        <v>46007</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="11" t="s">
         <v>418</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178" s="3">
+        <v>4</v>
+      </c>
+      <c r="J178" s="4">
         <v>2</v>
       </c>
-      <c r="J178" s="4">
-        <v>1</v>
-      </c>
-      <c r="R178" s="4">
-        <v>44016</v>
+      <c r="L178" s="4">
+        <v>4</v>
+      </c>
+      <c r="M178" s="3">
+        <v>-8</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:19">
       <c r="A179" s="3">
-        <v>46005</v>
+        <v>47005</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="1" t="s">
         <v>420</v>
       </c>
       <c r="D179" s="4">
         <v>4</v>
       </c>
       <c r="E179" s="3">
-        <v>2</v>
-      </c>
-      <c r="F179" s="4">
-        <v>1</v>
-      </c>
-      <c r="G179" s="4">
-        <v>15</v>
-      </c>
-      <c r="H179" s="4">
-        <v>1</v>
-      </c>
-      <c r="I179" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179" s="4">
         <v>1</v>
       </c>
-      <c r="R179" s="4">
-        <v>45017</v>
+      <c r="L179" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q179" s="4">
+        <v>1</v>
+      </c>
+      <c r="R179" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="S179" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="3">
-        <v>46006</v>
+        <v>47006</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="D180" s="4">
         <v>3</v>
@@ -41688,50 +41569,47 @@
         <v>4</v>
       </c>
       <c r="J180" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="M180" s="37" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:13">
       <c r="A181" s="3">
-        <v>47005</v>
+        <v>47007</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>428</v>
       </c>
       <c r="D181" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E181" s="3">
+        <v>8</v>
+      </c>
+      <c r="F181" s="4">
         <v>3</v>
       </c>
       <c r="J181" s="4">
         <v>1</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q181" s="4">
-        <v>1</v>
-      </c>
-      <c r="R181" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="S181" s="5" t="s">
-        <v>428</v>
+        <v>145</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="3">
-        <v>47006</v>
+        <v>48001</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>429</v>
@@ -41748,207 +41626,198 @@
       <c r="J182" s="4">
         <v>1</v>
       </c>
-      <c r="L182" s="4" t="s">
+      <c r="L182" s="4">
+        <v>38</v>
+      </c>
+      <c r="M182" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="3">
+        <v>48005</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="M182" s="3" t="s">
+      <c r="C183" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
-      <c r="A183" s="3">
-        <v>47007</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>434</v>
-      </c>
       <c r="D183" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E183" s="3">
-        <v>8</v>
-      </c>
-      <c r="F183" s="4">
         <v>3</v>
       </c>
       <c r="J183" s="4">
         <v>1</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>71</v>
+      <c r="L183" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q183" s="4">
+        <v>1</v>
+      </c>
+      <c r="R183" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="S183" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:3">
       <c r="A184" s="3">
-        <v>48001</v>
+        <v>48006</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" s="3">
+        <v>48007</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D184" s="4">
+      <c r="C185" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D185" s="4">
         <v>3</v>
       </c>
-      <c r="E184" s="3">
-        <v>4</v>
-      </c>
-      <c r="J184" s="4">
-        <v>1</v>
-      </c>
-      <c r="L184" s="4">
-        <v>38</v>
-      </c>
-      <c r="M184" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19">
-      <c r="A185" s="3">
-        <v>48005</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D185" s="4">
-        <v>4</v>
-      </c>
       <c r="E185" s="3">
+        <v>8</v>
+      </c>
+      <c r="F185" s="4">
         <v>3</v>
       </c>
       <c r="J185" s="4">
         <v>1</v>
       </c>
-      <c r="L185" s="10" t="s">
+      <c r="L185" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" s="12">
+        <v>49001</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C186" s="17"/>
+      <c r="S186" s="4"/>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" s="12">
+        <v>49002</v>
+      </c>
+      <c r="B187" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="Q185" s="4">
-        <v>1</v>
-      </c>
-      <c r="R185" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="S185" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="3">
-        <v>48006</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="A187" s="3">
-        <v>48007</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C187" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="D187" s="4">
-        <v>3</v>
-      </c>
-      <c r="E187" s="3">
-        <v>8</v>
-      </c>
-      <c r="F187" s="4">
-        <v>3</v>
-      </c>
-      <c r="J187" s="4">
-        <v>1</v>
-      </c>
-      <c r="L187" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M187" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="C187" s="17"/>
+      <c r="K187" s="3"/>
+      <c r="S187" s="4"/>
     </row>
     <row r="188" spans="1:19">
       <c r="A188" s="12">
-        <v>49001</v>
+        <v>49003</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C188" s="17"/>
+      <c r="K188" s="3"/>
       <c r="S188" s="4"/>
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="12">
-        <v>49002</v>
+        <v>49004</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C189" s="17"/>
       <c r="K189" s="3"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:17">
       <c r="A190" s="12">
-        <v>49003</v>
+        <v>49005</v>
       </c>
       <c r="B190" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D190" s="4">
+        <v>4</v>
+      </c>
+      <c r="E190" s="3">
+        <v>2</v>
+      </c>
+      <c r="J190" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" ht="27" spans="1:20">
+      <c r="A191" s="12">
+        <v>49006</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D191" s="4">
+        <v>3</v>
+      </c>
+      <c r="E191" s="3">
+        <v>3</v>
+      </c>
+      <c r="J191" s="4">
+        <v>1</v>
+      </c>
+      <c r="T191" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C190" s="17"/>
-      <c r="K190" s="3"/>
-      <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19">
-      <c r="A191" s="12">
-        <v>49004</v>
-      </c>
-      <c r="B191" s="12" t="s">
+    <row r="192" ht="27" spans="1:20">
+      <c r="A192" s="12">
+        <v>49007</v>
+      </c>
+      <c r="B192" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="C191" s="17"/>
-      <c r="K191" s="3"/>
-      <c r="S191" s="4"/>
-    </row>
-    <row r="192" spans="1:17">
-      <c r="A192" s="12">
-        <v>49005</v>
-      </c>
-      <c r="B192" s="12" t="s">
+      <c r="C192" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="D192" s="4">
+        <v>3</v>
+      </c>
+      <c r="E192" s="3">
+        <v>3</v>
+      </c>
+      <c r="J192" s="4">
+        <v>2</v>
+      </c>
+      <c r="T192" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="D192" s="4">
-        <v>4</v>
-      </c>
-      <c r="E192" s="3">
-        <v>2</v>
-      </c>
-      <c r="J192" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q192" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="193" ht="27" spans="1:20">
       <c r="A193" s="12">
-        <v>49006</v>
+        <v>49008</v>
       </c>
       <c r="B193" s="12" t="s">
         <v>450</v>
@@ -41960,127 +41829,155 @@
         <v>3</v>
       </c>
       <c r="E193" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K193" s="4">
+        <v>90003</v>
       </c>
       <c r="T193" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="194" ht="27" spans="1:20">
+    <row r="194" spans="1:3">
       <c r="A194" s="12">
-        <v>49007</v>
+        <v>49009</v>
       </c>
       <c r="B194" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C194" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C194" s="17" t="s">
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="3">
+        <v>90001</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D194" s="4">
-        <v>3</v>
-      </c>
-      <c r="E194" s="3">
-        <v>3</v>
-      </c>
-      <c r="J194" s="4">
-        <v>2</v>
-      </c>
-      <c r="T194" s="4" t="s">
+      <c r="C195" s="1" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="195" ht="27" spans="1:20">
-      <c r="A195" s="12">
-        <v>49008</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>457</v>
       </c>
       <c r="D195" s="4">
         <v>3</v>
       </c>
       <c r="E195" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J195" s="4">
         <v>2</v>
       </c>
-      <c r="K195" s="4">
-        <v>90003</v>
-      </c>
-      <c r="T195" s="4" t="s">
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="3">
+        <v>90002</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D196" s="4">
+        <v>3</v>
+      </c>
+      <c r="E196" s="3">
+        <v>12</v>
+      </c>
+      <c r="J196" s="4">
+        <v>2</v>
+      </c>
+      <c r="N196" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" s="4">
+        <v>29002</v>
+      </c>
+      <c r="B197" s="15" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="12">
-        <v>49009</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C196" s="17" t="s">
+      <c r="C197" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="A197" s="3">
-        <v>90001</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D197" s="4">
+      <c r="D197" s="3">
         <v>3</v>
       </c>
       <c r="E197" s="3">
         <v>4</v>
       </c>
-      <c r="J197" s="4">
-        <v>2</v>
-      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3">
+        <v>1</v>
+      </c>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3">
+        <v>9</v>
+      </c>
+      <c r="M197" s="3">
+        <v>1</v>
+      </c>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="T197" s="3"/>
     </row>
-    <row r="198" spans="1:14">
-      <c r="A198" s="3">
-        <v>90002</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D198" s="4">
+    <row r="198" spans="1:20">
+      <c r="A198" s="4">
+        <v>29003</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D198" s="3">
         <v>3</v>
       </c>
       <c r="E198" s="3">
-        <v>12</v>
-      </c>
-      <c r="J198" s="4">
-        <v>2</v>
-      </c>
-      <c r="N198" s="4">
-        <v>99</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3">
+        <v>1</v>
+      </c>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="T198" s="3"/>
     </row>
     <row r="199" spans="1:20">
       <c r="A199" s="4">
-        <v>29002</v>
+        <v>29004</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D199" s="3">
         <v>3</v>
@@ -42100,7 +41997,7 @@
         <v>9</v>
       </c>
       <c r="M199" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
@@ -42109,89 +42006,67 @@
       <c r="R199" s="3"/>
       <c r="T199" s="3"/>
     </row>
-    <row r="200" spans="1:20">
-      <c r="A200" s="4">
-        <v>29003</v>
-      </c>
-      <c r="B200" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D200" s="3">
+    <row r="200" spans="1:13">
+      <c r="A200" s="3">
+        <v>41101</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="D200" s="4">
         <v>3</v>
       </c>
       <c r="E200" s="3">
         <v>4</v>
       </c>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3">
+      <c r="J200" s="4">
         <v>1</v>
       </c>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M200" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="T200" s="3"/>
+      <c r="L200" s="4">
+        <v>4</v>
+      </c>
+      <c r="M200" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:20">
-      <c r="A201" s="4">
-        <v>29004</v>
-      </c>
-      <c r="B201" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D201" s="3">
+    <row r="201" spans="1:13">
+      <c r="A201" s="3">
+        <v>41102</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="D201" s="4">
         <v>3</v>
       </c>
       <c r="E201" s="3">
         <v>4</v>
       </c>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3">
+      <c r="J201" s="4">
         <v>1</v>
       </c>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3">
-        <v>9</v>
+      <c r="L201" s="4">
+        <v>4</v>
       </c>
       <c r="M201" s="3">
-        <v>2</v>
-      </c>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
-      <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="T201" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="3">
-        <v>41101</v>
+        <v>41103</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D202" s="4">
         <v>3</v>
@@ -42206,96 +42081,93 @@
         <v>4</v>
       </c>
       <c r="M202" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203" s="3">
+        <v>21104</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="D203" s="4">
+        <v>4</v>
+      </c>
+      <c r="E203" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" s="3">
-        <v>41102</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C203" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="D203" s="4">
-        <v>3</v>
-      </c>
-      <c r="E203" s="3">
-        <v>4</v>
       </c>
       <c r="J203" s="4">
         <v>1</v>
       </c>
-      <c r="L203" s="4">
-        <v>4</v>
-      </c>
-      <c r="M203" s="3">
-        <v>4</v>
+      <c r="Q203" s="4">
+        <v>1</v>
+      </c>
+      <c r="R203" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:11">
       <c r="A204" s="3">
-        <v>41103</v>
-      </c>
-      <c r="B204" s="3" t="s">
+        <v>21105</v>
+      </c>
+      <c r="B204" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C204" s="29" t="s">
         <v>474</v>
-      </c>
-      <c r="C204" s="19" t="s">
-        <v>475</v>
       </c>
       <c r="D204" s="4">
         <v>3</v>
       </c>
       <c r="E204" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J204" s="4">
         <v>1</v>
       </c>
-      <c r="L204" s="4">
+      <c r="K204" s="4">
+        <v>21105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" s="3">
+        <v>21106</v>
+      </c>
+      <c r="B205" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="D205" s="4">
+        <v>3</v>
+      </c>
+      <c r="E205" s="3">
         <v>4</v>
-      </c>
-      <c r="M204" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18">
-      <c r="A205" s="3">
-        <v>21104</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="D205" s="4">
-        <v>4</v>
-      </c>
-      <c r="E205" s="3">
-        <v>2</v>
       </c>
       <c r="J205" s="4">
         <v>1</v>
       </c>
-      <c r="Q205" s="4">
-        <v>1</v>
-      </c>
-      <c r="R205" s="10" t="s">
+      <c r="L205" s="4">
+        <v>10</v>
+      </c>
+      <c r="M205" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="3">
+        <v>21107</v>
+      </c>
+      <c r="B206" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C206" s="29" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="3">
-        <v>21105</v>
-      </c>
-      <c r="B206" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="C206" s="31" t="s">
-        <v>480</v>
       </c>
       <c r="D206" s="4">
         <v>3</v>
@@ -42306,65 +42178,75 @@
       <c r="J206" s="4">
         <v>1</v>
       </c>
-      <c r="K206" s="4">
-        <v>21105</v>
-      </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:10">
       <c r="A207" s="3">
-        <v>21106</v>
-      </c>
-      <c r="B207" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="C207" s="31" t="s">
-        <v>482</v>
+        <v>36001</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D207" s="4">
         <v>3</v>
       </c>
       <c r="E207" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J207" s="4">
         <v>1</v>
       </c>
-      <c r="L207" s="4">
-        <v>10</v>
-      </c>
-      <c r="M207" s="3">
-        <v>3</v>
-      </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:19">
       <c r="A208" s="3">
-        <v>21107</v>
-      </c>
-      <c r="B208" s="30" t="s">
+        <v>36002</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C208" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="D208" s="4">
+        <v>1</v>
+      </c>
+      <c r="E208" s="3">
+        <v>4</v>
+      </c>
+      <c r="F208" s="4">
+        <v>2</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H208" s="4">
+        <v>11</v>
+      </c>
+      <c r="I208" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C208" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="D208" s="4">
-        <v>3</v>
-      </c>
-      <c r="E208" s="3">
-        <v>1</v>
       </c>
       <c r="J208" s="4">
         <v>1</v>
       </c>
+      <c r="L208" s="4">
+        <v>13</v>
+      </c>
+      <c r="M208" s="4">
+        <v>1</v>
+      </c>
+      <c r="S208" s="4"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:11">
       <c r="A209" s="3">
-        <v>36001</v>
+        <v>36003</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>194</v>
+        <v>484</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>198</v>
       </c>
       <c r="D209" s="4">
         <v>3</v>
@@ -42375,135 +42257,154 @@
       <c r="J209" s="4">
         <v>1</v>
       </c>
+      <c r="K209" s="4">
+        <v>36003</v>
+      </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:18">
       <c r="A210" s="3">
-        <v>36002</v>
+        <v>36004</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C210" s="27" t="s">
         <v>486</v>
-      </c>
-      <c r="C210" s="32" t="s">
-        <v>487</v>
       </c>
       <c r="D210" s="4">
         <v>1</v>
       </c>
       <c r="E210" s="3">
-        <v>4</v>
-      </c>
-      <c r="F210" s="4">
         <v>2</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="H210" s="4">
-        <v>11</v>
-      </c>
-      <c r="I210" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="J210" s="4">
         <v>1</v>
       </c>
-      <c r="L210" s="4">
-        <v>13</v>
-      </c>
-      <c r="M210" s="4">
-        <v>1</v>
-      </c>
-      <c r="S210" s="4"/>
+      <c r="R210" s="4">
+        <v>24025</v>
+      </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:20">
       <c r="A211" s="3">
-        <v>36003</v>
+        <v>36005</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>198</v>
+        <v>487</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>488</v>
       </c>
       <c r="D211" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E211" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211" s="4">
         <v>1</v>
       </c>
-      <c r="K211" s="4">
-        <v>36003</v>
+      <c r="M211" s="4"/>
+      <c r="Q211" s="4">
+        <v>3</v>
+      </c>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
-      <c r="A212" s="3">
-        <v>36004</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>492</v>
+    <row r="212" spans="1:19">
+      <c r="A212" s="31">
+        <v>37002</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>490</v>
       </c>
       <c r="D212" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E212" s="3">
+        <v>4</v>
+      </c>
+      <c r="F212" s="4">
         <v>2</v>
+      </c>
+      <c r="G212" s="4">
+        <v>9</v>
+      </c>
+      <c r="H212" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I212" s="4">
+        <v>11</v>
       </c>
       <c r="J212" s="4">
         <v>1</v>
       </c>
-      <c r="R212" s="4">
-        <v>24025</v>
-      </c>
+      <c r="L212" s="4">
+        <v>13</v>
+      </c>
+      <c r="M212" s="4">
+        <v>1</v>
+      </c>
+      <c r="S212" s="4"/>
     </row>
-    <row r="213" spans="1:20">
-      <c r="A213" s="3">
-        <v>36005</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>494</v>
+    <row r="213" spans="1:19">
+      <c r="A213" s="31">
+        <v>37003</v>
+      </c>
+      <c r="B213" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>492</v>
       </c>
       <c r="D213" s="4">
+        <v>3</v>
+      </c>
+      <c r="E213" s="3">
         <v>4</v>
       </c>
-      <c r="E213" s="3">
+      <c r="F213" s="4">
         <v>2</v>
+      </c>
+      <c r="G213" s="4">
+        <v>9</v>
+      </c>
+      <c r="H213" s="4">
+        <v>1</v>
+      </c>
+      <c r="I213" s="4">
+        <v>9</v>
       </c>
       <c r="J213" s="4">
         <v>1</v>
       </c>
-      <c r="M213" s="4"/>
-      <c r="Q213" s="4">
-        <v>3</v>
+      <c r="L213" s="4">
+        <v>13</v>
+      </c>
+      <c r="M213" s="4">
+        <v>1</v>
       </c>
       <c r="S213" s="4"/>
-      <c r="T213" s="4" t="s">
-        <v>181</v>
-      </c>
     </row>
-    <row r="214" spans="1:19">
-      <c r="A214" s="33">
-        <v>37002</v>
-      </c>
-      <c r="B214" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="C214" s="27" t="s">
-        <v>496</v>
+    <row r="214" spans="1:18">
+      <c r="A214" s="3">
+        <v>37005</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>494</v>
       </c>
       <c r="D214" s="4">
         <v>3</v>
       </c>
       <c r="E214" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F214" s="4">
         <v>2</v>
@@ -42515,285 +42416,262 @@
         <v>-1</v>
       </c>
       <c r="I214" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J214" s="4">
         <v>1</v>
       </c>
-      <c r="L214" s="4">
-        <v>13</v>
-      </c>
-      <c r="M214" s="4">
-        <v>1</v>
-      </c>
-      <c r="S214" s="4"/>
+      <c r="R214" s="4">
+        <v>34036</v>
+      </c>
     </row>
     <row r="215" spans="1:19">
-      <c r="A215" s="33">
-        <v>37003</v>
-      </c>
-      <c r="B215" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="C215" s="35" t="s">
-        <v>498</v>
+      <c r="A215" s="3">
+        <v>18005</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="D215" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E215" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F215" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H215" s="4">
         <v>1</v>
       </c>
       <c r="I215" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J215" s="4">
         <v>1</v>
       </c>
-      <c r="L215" s="4">
-        <v>13</v>
-      </c>
-      <c r="M215" s="4">
-        <v>1</v>
+      <c r="M215" s="4"/>
+      <c r="R215" s="4">
+        <v>33026</v>
       </c>
       <c r="S215" s="4"/>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:19">
       <c r="A216" s="3">
-        <v>37005</v>
-      </c>
-      <c r="B216" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="C216" s="27" t="s">
-        <v>500</v>
+        <v>19001</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>498</v>
       </c>
       <c r="D216" s="4">
         <v>3</v>
       </c>
       <c r="E216" s="3">
+        <v>12</v>
+      </c>
+      <c r="F216" s="4">
+        <v>1</v>
+      </c>
+      <c r="G216" s="4">
+        <v>4</v>
+      </c>
+      <c r="H216" s="4">
+        <v>1</v>
+      </c>
+      <c r="I216" s="4">
+        <v>1</v>
+      </c>
+      <c r="J216" s="4">
         <v>2</v>
       </c>
-      <c r="F216" s="4">
-        <v>2</v>
-      </c>
-      <c r="G216" s="4">
-        <v>9</v>
-      </c>
-      <c r="H216" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I216" s="4">
-        <v>6</v>
-      </c>
-      <c r="J216" s="4">
-        <v>1</v>
-      </c>
-      <c r="R216" s="4">
-        <v>34036</v>
-      </c>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4">
+        <v>4</v>
+      </c>
+      <c r="S216" s="4"/>
     </row>
-    <row r="217" spans="1:14">
-      <c r="A217" s="23">
-        <v>41201</v>
+    <row r="217" spans="1:19">
+      <c r="A217" s="3">
+        <v>19002</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D217" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E217" s="3">
         <v>12</v>
       </c>
-      <c r="F217" s="3">
+      <c r="F217" s="4">
+        <v>1</v>
+      </c>
+      <c r="G217" s="4">
+        <v>4</v>
+      </c>
+      <c r="H217" s="4">
+        <v>1</v>
+      </c>
+      <c r="I217" s="4">
         <v>2</v>
       </c>
-      <c r="G217" s="3">
-        <v>15</v>
-      </c>
-      <c r="H217" s="3">
-        <v>1</v>
-      </c>
-      <c r="I217" s="3">
-        <v>0</v>
-      </c>
-      <c r="J217" s="3">
+      <c r="J217" s="4">
         <v>2</v>
       </c>
-      <c r="N217" s="3">
-        <v>2</v>
-      </c>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4">
+        <v>6</v>
+      </c>
+      <c r="S217" s="4"/>
     </row>
-    <row r="218" spans="1:14">
-      <c r="A218" s="23">
-        <v>41202</v>
+    <row r="218" spans="1:19">
+      <c r="A218" s="3">
+        <v>19003</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>502</v>
       </c>
       <c r="D218" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E218" s="3">
         <v>12</v>
       </c>
-      <c r="F218" s="3">
+      <c r="F218" s="4">
         <v>1</v>
       </c>
-      <c r="G218" s="3">
-        <v>15</v>
-      </c>
-      <c r="H218" s="3">
+      <c r="G218" s="4">
+        <v>4</v>
+      </c>
+      <c r="H218" s="4">
         <v>1</v>
       </c>
-      <c r="I218" s="3">
-        <v>0</v>
-      </c>
-      <c r="J218" s="3">
+      <c r="I218" s="4">
+        <v>3</v>
+      </c>
+      <c r="J218" s="4">
         <v>2</v>
       </c>
-      <c r="N218" s="3">
-        <v>2</v>
-      </c>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4">
+        <v>8</v>
+      </c>
+      <c r="S218" s="4"/>
     </row>
-    <row r="219" spans="1:14">
-      <c r="A219" s="23">
-        <v>41203</v>
+    <row r="219" spans="1:19">
+      <c r="A219" s="3">
+        <v>19004</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>504</v>
       </c>
       <c r="D219" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E219" s="3">
         <v>12</v>
       </c>
-      <c r="F219" s="3">
+      <c r="F219" s="4">
         <v>1</v>
       </c>
-      <c r="G219" s="3">
-        <v>15</v>
-      </c>
-      <c r="H219" s="3">
+      <c r="G219" s="4">
+        <v>4</v>
+      </c>
+      <c r="H219" s="4">
         <v>1</v>
       </c>
-      <c r="I219" s="3">
-        <v>0</v>
-      </c>
-      <c r="J219" s="3">
+      <c r="I219" s="4">
+        <v>4</v>
+      </c>
+      <c r="J219" s="4">
         <v>2</v>
       </c>
-      <c r="N219" s="3">
-        <v>4</v>
-      </c>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4">
+        <v>10</v>
+      </c>
+      <c r="S219" s="4"/>
     </row>
-    <row r="220" spans="1:14">
-      <c r="A220" s="23">
-        <v>41204</v>
+    <row r="220" spans="1:19">
+      <c r="A220" s="3">
+        <v>19005</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D220" s="4">
         <v>4</v>
       </c>
       <c r="E220" s="3">
-        <v>12</v>
-      </c>
-      <c r="F220" s="3">
+        <v>2</v>
+      </c>
+      <c r="J220" s="4">
         <v>1</v>
       </c>
-      <c r="G220" s="3">
-        <v>15</v>
-      </c>
-      <c r="H220" s="3">
-        <v>1</v>
-      </c>
-      <c r="I220" s="3">
-        <v>0</v>
-      </c>
-      <c r="J220" s="3">
-        <v>2</v>
-      </c>
-      <c r="N220" s="3">
-        <v>4</v>
-      </c>
+      <c r="M220" s="4"/>
+      <c r="R220" s="4">
+        <v>43036</v>
+      </c>
+      <c r="S220" s="4"/>
     </row>
     <row r="221" spans="1:19">
       <c r="A221" s="3">
-        <v>18005</v>
+        <v>19006</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
+      </c>
+      <c r="C221" s="33" t="s">
+        <v>508</v>
       </c>
       <c r="D221" s="4">
-        <v>4</v>
-      </c>
-      <c r="E221" s="3">
+        <v>3</v>
+      </c>
+      <c r="E221" s="4">
+        <v>3</v>
+      </c>
+      <c r="J221" s="4">
         <v>2</v>
       </c>
-      <c r="F221" s="4">
-        <v>1</v>
-      </c>
-      <c r="G221" s="4">
-        <v>14</v>
-      </c>
-      <c r="H221" s="4">
-        <v>1</v>
-      </c>
-      <c r="I221" s="4">
-        <v>0</v>
-      </c>
-      <c r="J221" s="4">
-        <v>1</v>
-      </c>
       <c r="M221" s="4"/>
-      <c r="R221" s="4">
-        <v>33026</v>
-      </c>
       <c r="S221" s="4"/>
     </row>
     <row r="222" spans="1:19">
       <c r="A222" s="3">
-        <v>19001</v>
+        <v>190011</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D222" s="4">
         <v>3</v>
       </c>
       <c r="E222" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F222" s="4">
         <v>1</v>
@@ -42808,29 +42686,31 @@
         <v>1</v>
       </c>
       <c r="J222" s="4">
-        <v>2</v>
-      </c>
-      <c r="M222" s="4"/>
-      <c r="N222" s="4">
+        <v>1</v>
+      </c>
+      <c r="L222" s="4">
         <v>4</v>
+      </c>
+      <c r="M222" s="3">
+        <v>-2</v>
       </c>
       <c r="S222" s="4"/>
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="3">
-        <v>19002</v>
+        <v>190012</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D223" s="4">
         <v>3</v>
       </c>
       <c r="E223" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
@@ -42845,29 +42725,31 @@
         <v>2</v>
       </c>
       <c r="J223" s="4">
-        <v>2</v>
-      </c>
-      <c r="M223" s="4"/>
-      <c r="N223" s="4">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="L223" s="4">
+        <v>4</v>
+      </c>
+      <c r="M223" s="3">
+        <v>-3</v>
       </c>
       <c r="S223" s="4"/>
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="3">
-        <v>19003</v>
+        <v>190013</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D224" s="4">
         <v>3</v>
       </c>
       <c r="E224" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F224" s="4">
         <v>1</v>
@@ -42882,29 +42764,31 @@
         <v>3</v>
       </c>
       <c r="J224" s="4">
-        <v>2</v>
-      </c>
-      <c r="M224" s="4"/>
-      <c r="N224" s="4">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="L224" s="4">
+        <v>4</v>
+      </c>
+      <c r="M224" s="3">
+        <v>-4</v>
       </c>
       <c r="S224" s="4"/>
     </row>
     <row r="225" spans="1:19">
       <c r="A225" s="3">
-        <v>19004</v>
+        <v>190014</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D225" s="4">
         <v>3</v>
       </c>
       <c r="E225" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F225" s="4">
         <v>1</v>
@@ -42919,187 +42803,147 @@
         <v>4</v>
       </c>
       <c r="J225" s="4">
-        <v>2</v>
-      </c>
-      <c r="M225" s="4"/>
-      <c r="N225" s="4">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L225" s="4">
+        <v>4</v>
+      </c>
+      <c r="M225" s="3">
+        <v>-5</v>
       </c>
       <c r="S225" s="4"/>
     </row>
     <row r="226" spans="1:19">
       <c r="A226" s="3">
-        <v>19005</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>520</v>
+        <v>38002</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>514</v>
       </c>
       <c r="D226" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E226" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J226" s="4">
         <v>1</v>
       </c>
-      <c r="M226" s="4"/>
-      <c r="R226" s="4">
-        <v>43036</v>
+      <c r="K226" s="4">
+        <v>38004</v>
       </c>
       <c r="S226" s="4"/>
     </row>
     <row r="227" spans="1:19">
       <c r="A227" s="3">
-        <v>19006</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C227" s="36" t="s">
-        <v>522</v>
+        <v>38003</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="D227" s="4">
-        <v>3</v>
-      </c>
-      <c r="E227" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1</v>
       </c>
       <c r="J227" s="4">
-        <v>2</v>
-      </c>
-      <c r="M227" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K227" s="4">
+        <v>38005</v>
+      </c>
       <c r="S227" s="4"/>
     </row>
     <row r="228" spans="1:19">
       <c r="A228" s="3">
-        <v>190011</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>511</v>
+        <v>38004</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>513</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D228" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E228" s="3">
-        <v>4</v>
-      </c>
-      <c r="F228" s="4">
-        <v>1</v>
-      </c>
-      <c r="G228" s="4">
-        <v>4</v>
-      </c>
-      <c r="H228" s="4">
-        <v>1</v>
-      </c>
-      <c r="I228" s="4">
         <v>1</v>
       </c>
       <c r="J228" s="4">
         <v>1</v>
       </c>
-      <c r="L228" s="4">
-        <v>4</v>
-      </c>
-      <c r="M228" s="3">
-        <v>-2</v>
+      <c r="K228" s="4">
+        <v>38002</v>
       </c>
       <c r="S228" s="4"/>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:20">
       <c r="A229" s="3">
-        <v>190012</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>513</v>
+        <v>38005</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D229" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E229" s="3">
-        <v>4</v>
-      </c>
-      <c r="F229" s="4">
-        <v>1</v>
-      </c>
-      <c r="G229" s="4">
-        <v>4</v>
-      </c>
-      <c r="H229" s="4">
-        <v>1</v>
-      </c>
-      <c r="I229" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J229" s="4">
         <v>1</v>
       </c>
-      <c r="L229" s="4">
-        <v>4</v>
-      </c>
-      <c r="M229" s="3">
-        <v>-3</v>
+      <c r="Q229" s="4">
+        <v>1</v>
       </c>
       <c r="S229" s="4"/>
+      <c r="T229" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:11">
       <c r="A230" s="3">
-        <v>190013</v>
+        <v>21201</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C230" s="19" t="s">
-        <v>525</v>
+        <v>520</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="D230" s="4">
         <v>3</v>
       </c>
       <c r="E230" s="3">
-        <v>4</v>
-      </c>
-      <c r="F230" s="4">
         <v>1</v>
-      </c>
-      <c r="G230" s="4">
-        <v>4</v>
-      </c>
-      <c r="H230" s="4">
-        <v>1</v>
-      </c>
-      <c r="I230" s="4">
-        <v>3</v>
       </c>
       <c r="J230" s="4">
         <v>1</v>
       </c>
-      <c r="L230" s="4">
-        <v>4</v>
-      </c>
-      <c r="M230" s="3">
-        <v>-4</v>
-      </c>
-      <c r="S230" s="4"/>
+      <c r="K230" s="4">
+        <v>21201</v>
+      </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:13">
       <c r="A231" s="3">
-        <v>190014</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C231" s="19" t="s">
-        <v>526</v>
+        <v>1000</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="D231" s="4">
         <v>3</v>
@@ -43111,10 +42955,10 @@
         <v>1</v>
       </c>
       <c r="G231" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H231" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" s="4">
         <v>4</v>
@@ -43122,26 +42966,25 @@
       <c r="J231" s="4">
         <v>1</v>
       </c>
-      <c r="L231" s="4">
-        <v>4</v>
-      </c>
-      <c r="M231" s="3">
-        <v>-5</v>
-      </c>
-      <c r="S231" s="4"/>
+      <c r="L231" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="M231" s="6" t="s">
+        <v>525</v>
+      </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:11">
       <c r="A232" s="3">
-        <v>38002</v>
+        <v>1001</v>
       </c>
       <c r="B232" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C232" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C232" s="19" t="s">
-        <v>528</v>
-      </c>
       <c r="D232" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
@@ -43150,212 +42993,52 @@
         <v>1</v>
       </c>
       <c r="K232" s="4">
-        <v>38004</v>
-      </c>
-      <c r="S232" s="4"/>
+        <v>2000</v>
+      </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:13">
       <c r="A233" s="3">
-        <v>38003</v>
+        <v>1002</v>
       </c>
       <c r="B233" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C233" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C233" s="19" t="s">
-        <v>530</v>
-      </c>
       <c r="D233" s="4">
+        <v>3</v>
+      </c>
+      <c r="E233" s="3">
+        <v>4</v>
+      </c>
+      <c r="F233" s="4">
         <v>1</v>
       </c>
-      <c r="E233" s="3">
-        <v>1</v>
+      <c r="G233" s="4">
+        <v>16</v>
+      </c>
+      <c r="H233" s="4">
+        <v>0</v>
+      </c>
+      <c r="I233" s="4">
+        <v>3</v>
       </c>
       <c r="J233" s="4">
         <v>1</v>
       </c>
-      <c r="K233" s="4">
-        <v>38005</v>
-      </c>
-      <c r="S233" s="4"/>
+      <c r="L233" s="4">
+        <v>9</v>
+      </c>
+      <c r="M233" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="234" spans="1:19">
-      <c r="A234" s="3">
-        <v>38004</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="C234" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="D234" s="4">
-        <v>1</v>
-      </c>
-      <c r="E234" s="3">
-        <v>1</v>
-      </c>
-      <c r="J234" s="4">
-        <v>1</v>
-      </c>
-      <c r="K234" s="4">
-        <v>38002</v>
-      </c>
-      <c r="S234" s="4"/>
+    <row r="234" spans="10:10">
+      <c r="J234" s="10"/>
     </row>
-    <row r="235" spans="1:20">
-      <c r="A235" s="3">
-        <v>38005</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C235" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="D235" s="4">
-        <v>4</v>
-      </c>
-      <c r="E235" s="3">
-        <v>7</v>
-      </c>
-      <c r="J235" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q235" s="4">
-        <v>1</v>
-      </c>
-      <c r="S235" s="4"/>
-      <c r="T235" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="A236" s="3">
-        <v>21201</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D236" s="4">
-        <v>3</v>
-      </c>
-      <c r="E236" s="3">
-        <v>1</v>
-      </c>
-      <c r="J236" s="4">
-        <v>1</v>
-      </c>
-      <c r="K236" s="4">
-        <v>21201</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13">
-      <c r="A237" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D237" s="4">
-        <v>3</v>
-      </c>
-      <c r="E237" s="3">
-        <v>4</v>
-      </c>
-      <c r="F237" s="4">
-        <v>1</v>
-      </c>
-      <c r="G237" s="4">
-        <v>16</v>
-      </c>
-      <c r="H237" s="4">
-        <v>0</v>
-      </c>
-      <c r="I237" s="4">
-        <v>4</v>
-      </c>
-      <c r="J237" s="4">
-        <v>1</v>
-      </c>
-      <c r="L237" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="M237" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D238" s="4">
-        <v>3</v>
-      </c>
-      <c r="E238" s="3">
-        <v>1</v>
-      </c>
-      <c r="J238" s="4">
-        <v>1</v>
-      </c>
-      <c r="K238" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13">
-      <c r="A239" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="D239" s="4">
-        <v>3</v>
-      </c>
-      <c r="E239" s="3">
-        <v>4</v>
-      </c>
-      <c r="F239" s="4">
-        <v>1</v>
-      </c>
-      <c r="G239" s="4">
-        <v>16</v>
-      </c>
-      <c r="H239" s="4">
-        <v>0</v>
-      </c>
-      <c r="I239" s="4">
-        <v>3</v>
-      </c>
-      <c r="J239" s="4">
-        <v>1</v>
-      </c>
-      <c r="L239" s="4">
-        <v>9</v>
-      </c>
-      <c r="M239" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="10:10">
-      <c r="J240" s="10"/>
-    </row>
-    <row r="241" spans="10:10">
-      <c r="J241" s="10"/>
+    <row r="235" spans="10:10">
+      <c r="J235" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
